--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H2">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I2">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J2">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>78.37080400000001</v>
+        <v>54.89331066666666</v>
       </c>
       <c r="N2">
-        <v>235.112412</v>
+        <v>164.679932</v>
       </c>
       <c r="O2">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="P2">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="Q2">
-        <v>7902.706883460338</v>
+        <v>1434.237764584719</v>
       </c>
       <c r="R2">
-        <v>71124.36195114304</v>
+        <v>12908.13988126247</v>
       </c>
       <c r="S2">
-        <v>0.6064637611894568</v>
+        <v>0.2392725957574616</v>
       </c>
       <c r="T2">
-        <v>0.6064637611894569</v>
+        <v>0.2392725957574617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H3">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I3">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J3">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.309992333333334</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N3">
-        <v>6.929977000000001</v>
+        <v>6.929977</v>
       </c>
       <c r="O3">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="P3">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="Q3">
-        <v>232.9335847233868</v>
+        <v>60.35486291738034</v>
       </c>
       <c r="R3">
-        <v>2096.402262510481</v>
+        <v>543.193766256423</v>
       </c>
       <c r="S3">
-        <v>0.01787561907355375</v>
+        <v>0.01006894747399766</v>
       </c>
       <c r="T3">
-        <v>0.01787561907355376</v>
+        <v>0.01006894747399766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H4">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I4">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J4">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.987804</v>
+        <v>3.982169333333333</v>
       </c>
       <c r="N4">
-        <v>11.963412</v>
+        <v>11.946508</v>
       </c>
       <c r="O4">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224938</v>
       </c>
       <c r="P4">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224936</v>
       </c>
       <c r="Q4">
-        <v>402.119724594004</v>
+        <v>104.0450571021213</v>
       </c>
       <c r="R4">
-        <v>3619.077521346036</v>
+        <v>936.4055139190921</v>
       </c>
       <c r="S4">
-        <v>0.03085917828183006</v>
+        <v>0.01735774325797804</v>
       </c>
       <c r="T4">
-        <v>0.03085917828183007</v>
+        <v>0.01735774325797804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.37080400000001</v>
+        <v>54.89331066666666</v>
       </c>
       <c r="N5">
-        <v>235.112412</v>
+        <v>164.679932</v>
       </c>
       <c r="O5">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="P5">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="Q5">
-        <v>1873.686778660677</v>
+        <v>1312.387588023806</v>
       </c>
       <c r="R5">
-        <v>16863.1810079461</v>
+        <v>11811.48829221425</v>
       </c>
       <c r="S5">
-        <v>0.1437891026245368</v>
+        <v>0.2189444404409848</v>
       </c>
       <c r="T5">
-        <v>0.1437891026245368</v>
+        <v>0.2189444404409849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.309992333333334</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N6">
-        <v>6.929977000000001</v>
+        <v>6.929977</v>
       </c>
       <c r="O6">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="P6">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="Q6">
         <v>55.22722586556844</v>
@@ -818,10 +818,10 @@
         <v>497.045032790116</v>
       </c>
       <c r="S6">
-        <v>0.004238207441122587</v>
+        <v>0.009213508398424011</v>
       </c>
       <c r="T6">
-        <v>0.004238207441122588</v>
+        <v>0.009213508398424013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.987804</v>
+        <v>3.982169333333333</v>
       </c>
       <c r="N7">
-        <v>11.963412</v>
+        <v>11.946508</v>
       </c>
       <c r="O7">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224938</v>
       </c>
       <c r="P7">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224936</v>
       </c>
       <c r="Q7">
-        <v>95.34029573934399</v>
+        <v>95.20558230147377</v>
       </c>
       <c r="R7">
-        <v>858.0626616540959</v>
+        <v>856.8502407132639</v>
       </c>
       <c r="S7">
-        <v>0.007316535359297044</v>
+        <v>0.01588306163062874</v>
       </c>
       <c r="T7">
-        <v>0.007316535359297044</v>
+        <v>0.01588306163062874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H8">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I8">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J8">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>78.37080400000001</v>
+        <v>54.89331066666666</v>
       </c>
       <c r="N8">
-        <v>235.112412</v>
+        <v>164.679932</v>
       </c>
       <c r="O8">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="P8">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="Q8">
-        <v>2285.151315956787</v>
+        <v>2631.108436872468</v>
       </c>
       <c r="R8">
-        <v>20566.36184361108</v>
+        <v>23679.97593185221</v>
       </c>
       <c r="S8">
-        <v>0.1753654136992825</v>
+        <v>0.4389454530867959</v>
       </c>
       <c r="T8">
-        <v>0.1753654136992825</v>
+        <v>0.4389454530867961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H9">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I9">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J9">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.309992333333334</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N9">
-        <v>6.929977000000001</v>
+        <v>6.929977</v>
       </c>
       <c r="O9">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="P9">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="Q9">
-        <v>67.35521075382557</v>
+        <v>110.7209647866029</v>
       </c>
       <c r="R9">
-        <v>606.1968967844301</v>
+        <v>996.488683079426</v>
       </c>
       <c r="S9">
-        <v>0.005168924401709225</v>
+        <v>0.01847147893008649</v>
       </c>
       <c r="T9">
-        <v>0.005168924401709226</v>
+        <v>0.01847147893008649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H10">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I10">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J10">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.987804</v>
+        <v>3.982169333333333</v>
       </c>
       <c r="N10">
-        <v>11.963412</v>
+        <v>11.946508</v>
       </c>
       <c r="O10">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224938</v>
       </c>
       <c r="P10">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224936</v>
       </c>
       <c r="Q10">
-        <v>116.27717330012</v>
+        <v>190.8706034076115</v>
       </c>
       <c r="R10">
-        <v>1046.49455970108</v>
+        <v>1717.835430668504</v>
       </c>
       <c r="S10">
-        <v>0.00892325792921116</v>
+        <v>0.0318427710236426</v>
       </c>
       <c r="T10">
-        <v>0.00892325792921116</v>
+        <v>0.0318427710236426</v>
       </c>
     </row>
   </sheetData>
